--- a/소싱분석/(과제3)DBL 손익분기점 산출 파일.xlsx
+++ b/소싱분석/(과제3)DBL 손익분기점 산출 파일.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbg61\Desktop\과제\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.sbg\workspace\MyStock\소싱분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F4E39C-9CBA-4F16-B43B-575927A2DC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D067C58-9DCC-474F-ADBC-E2A1668F6F2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="예시자료 " sheetId="10" r:id="rId1"/>
@@ -26,15 +26,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -1087,7 +1078,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="89">
   <si>
     <t>키워드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1474,6 +1465,22 @@
   </si>
   <si>
     <t>심플하고 제품에비해 가격이 저렴해 보였다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔토시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/goodsafe/products/4417926914?nl-au=582e6799559042e99f328aff303d22dd&amp;nl-query=%ED%8C%94%ED%86%A0%EC%8B%9C&amp;NaPm=ct%3Dm1ep6oi0%7Cci%3D4f1d24f57896f4f83d0cfdd7b46a8953c1535880%7Ctr%3Dslsl%7Csn%3D656934%7Chk%3D8481ff245797b92a590c94c5b98fc297fe7a6127</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅파워</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨토시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2686,6 +2693,69 @@
     <xf numFmtId="178" fontId="5" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2695,12 +2765,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2759,63 +2823,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3983,7 +3990,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>661229</xdr:colOff>
+      <xdr:colOff>651704</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>340619</xdr:rowOff>
     </xdr:to>
@@ -4010,6 +4017,50 @@
         <a:xfrm>
           <a:off x="32878939" y="5106760"/>
           <a:ext cx="9263665" cy="3244384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1235297</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>225288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C532EEE-D950-4082-9893-8BDFC2B2E773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1119809" y="1696279"/>
+          <a:ext cx="1235297" cy="1338470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4169,9 +4220,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4209,7 +4260,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4315,7 +4366,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4457,7 +4508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4467,7 +4518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:AE27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -4496,24 +4547,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="3:31" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
@@ -4527,39 +4578,39 @@
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="90" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="126" t="s">
+      <c r="F5" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="128"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="95"/>
     </row>
     <row r="6" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="125"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="9"/>
       <c r="E6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="129" t="s">
+      <c r="F6" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -4577,7 +4628,7 @@
       <c r="AE6" s="3"/>
     </row>
     <row r="7" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="125"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="9"/>
       <c r="E7" s="13" t="s">
         <v>3</v>
@@ -4595,7 +4646,7 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="111"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="12"/>
       <c r="E8" s="79">
         <v>15000</v>
@@ -4618,13 +4669,13 @@
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="112" t="s">
+      <c r="D9" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
       <c r="N9" s="3"/>
       <c r="U9" s="1"/>
     </row>
@@ -4632,22 +4683,22 @@
       <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="100"/>
     </row>
     <row r="11" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="13" t="s">
         <v>2</v>
       </c>
@@ -4662,7 +4713,7 @@
       </c>
     </row>
     <row r="12" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="117"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
@@ -4682,7 +4733,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="117"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
@@ -4692,11 +4743,11 @@
       <c r="F13" s="29">
         <v>16280</v>
       </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
     </row>
     <row r="14" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="117"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="10" t="s">
         <v>14</v>
       </c>
@@ -4706,11 +4757,11 @@
       <c r="F14" s="29">
         <v>9840</v>
       </c>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
     </row>
     <row r="15" spans="3:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="118"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="15" t="s">
         <v>15</v>
       </c>
@@ -4720,17 +4771,17 @@
       <c r="F15" s="31">
         <v>11100</v>
       </c>
-      <c r="G15" s="119"/>
-      <c r="H15" s="118"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="103"/>
     </row>
     <row r="16" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="105"/>
       <c r="F16" s="38" t="s">
         <v>7</v>
       </c>
@@ -4742,7 +4793,7 @@
       </c>
     </row>
     <row r="17" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="87"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="14" t="s">
         <v>83</v>
       </c>
@@ -4761,20 +4812,20 @@
       </c>
     </row>
     <row r="18" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="88"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="91">
+      <c r="E18" s="110">
         <f>H17*3</f>
         <v>238221</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="113"/>
     </row>
     <row r="19" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="114" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="22" t="s">
@@ -4786,13 +4837,13 @@
       <c r="F19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="104"/>
+      <c r="H19" s="123"/>
     </row>
     <row r="20" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="96"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="85">
         <f>9.88*2</f>
         <v>19.760000000000002</v>
@@ -4805,18 +4856,18 @@
         <f>E8-E20</f>
         <v>9743.84</v>
       </c>
-      <c r="G20" s="105">
+      <c r="G20" s="124">
         <f>1-(E20/E8)</f>
         <v>0.64958933333333335</v>
       </c>
-      <c r="H20" s="106"/>
+      <c r="H20" s="125"/>
       <c r="J20" s="3">
         <f>E20*E22</f>
         <v>194434.11866666668</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="114" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="42" t="s">
@@ -4836,7 +4887,7 @@
       </c>
     </row>
     <row r="22" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="96"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="48">
         <v>0.115</v>
       </c>
@@ -4858,46 +4909,46 @@
       </c>
     </row>
     <row r="23" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="107">
+      <c r="E23" s="121"/>
+      <c r="F23" s="126">
         <f>+E20*E22</f>
         <v>194434.11866666668</v>
       </c>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="128"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="111"/>
-      <c r="D24" s="101" t="s">
+      <c r="C24" s="92"/>
+      <c r="D24" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="98">
+      <c r="E24" s="121"/>
+      <c r="F24" s="117">
         <f>F23+E18</f>
         <v>432655.11866666668</v>
       </c>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="32" t="s">
@@ -4921,18 +4972,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="E18:H18"/>
@@ -4946,6 +4985,18 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5323,7 +5374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF18945-E087-471B-9DA0-6B35249BD099}">
   <dimension ref="C1:AE27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -5352,24 +5403,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="3:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
@@ -5383,39 +5434,39 @@
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="90" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="126" t="s">
+      <c r="F5" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="128"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="95"/>
     </row>
     <row r="6" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="125"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="9"/>
       <c r="E6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="129" t="s">
+      <c r="F6" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -5433,7 +5484,7 @@
       <c r="AE6" s="3"/>
     </row>
     <row r="7" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="125"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="9"/>
       <c r="E7" s="13" t="s">
         <v>3</v>
@@ -5451,7 +5502,7 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="111"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="12"/>
       <c r="E8" s="79">
         <v>15000</v>
@@ -5474,13 +5525,13 @@
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="112" t="s">
+      <c r="D9" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
       <c r="N9" s="3"/>
       <c r="U9" s="1"/>
     </row>
@@ -5488,22 +5539,22 @@
       <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="100"/>
     </row>
     <row r="11" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="13" t="s">
         <v>2</v>
       </c>
@@ -5518,7 +5569,7 @@
       </c>
     </row>
     <row r="12" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="117"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
@@ -5538,7 +5589,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="117"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
@@ -5548,11 +5599,11 @@
       <c r="F13" s="29">
         <v>16280</v>
       </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
     </row>
     <row r="14" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="117"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="10" t="s">
         <v>14</v>
       </c>
@@ -5562,11 +5613,11 @@
       <c r="F14" s="29">
         <v>9840</v>
       </c>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
     </row>
     <row r="15" spans="3:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="118"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="15" t="s">
         <v>15</v>
       </c>
@@ -5576,17 +5627,17 @@
       <c r="F15" s="31">
         <v>11100</v>
       </c>
-      <c r="G15" s="119"/>
-      <c r="H15" s="118"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="103"/>
     </row>
     <row r="16" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="105"/>
       <c r="F16" s="38" t="s">
         <v>7</v>
       </c>
@@ -5598,7 +5649,7 @@
       </c>
     </row>
     <row r="17" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="87"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="14" t="s">
         <v>82</v>
       </c>
@@ -5617,20 +5668,20 @@
       </c>
     </row>
     <row r="18" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="88"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="91">
+      <c r="E18" s="110">
         <f>H17*3</f>
         <v>238221</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="113"/>
     </row>
     <row r="19" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="114" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="22" t="s">
@@ -5642,13 +5693,13 @@
       <c r="F19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="104"/>
+      <c r="H19" s="123"/>
     </row>
     <row r="20" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="96"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="80">
         <v>27</v>
       </c>
@@ -5660,18 +5711,18 @@
         <f>E8-E20</f>
         <v>7818.0000000000009</v>
       </c>
-      <c r="G20" s="105">
+      <c r="G20" s="124">
         <f>1-(E20/E8)</f>
         <v>0.52120000000000011</v>
       </c>
-      <c r="H20" s="106"/>
+      <c r="H20" s="125"/>
       <c r="J20" s="3">
         <f>E20*E22</f>
         <v>277225.19999999995</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="114" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="42" t="s">
@@ -5691,7 +5742,7 @@
       </c>
     </row>
     <row r="22" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="96"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="48">
         <v>0.12</v>
       </c>
@@ -5713,46 +5764,46 @@
       </c>
     </row>
     <row r="23" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="107">
+      <c r="E23" s="121"/>
+      <c r="F23" s="126">
         <f>+E20*E22</f>
         <v>277225.19999999995</v>
       </c>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="128"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="111"/>
-      <c r="D24" s="101" t="s">
+      <c r="C24" s="92"/>
+      <c r="D24" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="98">
+      <c r="E24" s="121"/>
+      <c r="F24" s="117">
         <f>F23+E18</f>
         <v>515446.19999999995</v>
       </c>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="32" t="s">
@@ -5776,18 +5827,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D25:H25"/>
     <mergeCell ref="C16:C18"/>
@@ -5801,6 +5840,18 @@
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5818,8 +5869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9737A955-3DB5-4B9C-ABC2-5E4E4536CA28}">
   <dimension ref="C1:AE27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5847,24 +5898,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="3:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
@@ -5878,35 +5929,37 @@
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="90" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="128"/>
+      <c r="F5" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="94"/>
+      <c r="H5" s="95"/>
     </row>
     <row r="6" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="125"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="9"/>
       <c r="E6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -5924,7 +5977,7 @@
       <c r="AE6" s="3"/>
     </row>
     <row r="7" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="125"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="9"/>
       <c r="E7" s="13" t="s">
         <v>3</v>
@@ -5942,17 +5995,21 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="111"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="79">
+        <v>4900</v>
+      </c>
+      <c r="F8" s="25">
+        <v>196987</v>
+      </c>
       <c r="G8" s="23">
         <f>F8/6</f>
-        <v>0</v>
+        <v>32831.166666666664</v>
       </c>
       <c r="H8" s="23">
         <f>E8*G8</f>
-        <v>0</v>
+        <v>160872716.66666666</v>
       </c>
       <c r="N8" s="3"/>
       <c r="U8" s="1"/>
@@ -5961,11 +6018,13 @@
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
+      <c r="D9" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
       <c r="N9" s="3"/>
       <c r="U9" s="1"/>
     </row>
@@ -5973,20 +6032,22 @@
       <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="134"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
+      <c r="D10" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="100"/>
     </row>
     <row r="11" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="13" t="s">
         <v>2</v>
       </c>
@@ -6001,57 +6062,63 @@
       </c>
     </row>
     <row r="12" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="117"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="E12" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="27">
+        <v>14880</v>
+      </c>
+      <c r="G12" s="27">
+        <v>1400000000</v>
+      </c>
       <c r="H12" s="24">
         <f>G12/6</f>
-        <v>0</v>
+        <v>233333333.33333334</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="117"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
     </row>
     <row r="14" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="117"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
     </row>
     <row r="15" spans="3:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="118"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="118"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="103"/>
     </row>
     <row r="16" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="105"/>
       <c r="F16" s="38" t="s">
         <v>7</v>
       </c>
@@ -6063,31 +6130,35 @@
       </c>
     </row>
     <row r="17" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="87"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="14"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="78"/>
+      <c r="F17" s="45">
+        <v>2296</v>
+      </c>
+      <c r="G17" s="78">
+        <v>19</v>
+      </c>
       <c r="H17" s="46">
         <f>F17*G17</f>
-        <v>0</v>
+        <v>43624</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="88"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="91">
+      <c r="E18" s="110">
         <f>H17*3</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
+        <v>130872</v>
+      </c>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="113"/>
     </row>
     <row r="19" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="114" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="22" t="s">
@@ -6099,34 +6170,36 @@
       <c r="F19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="104"/>
+      <c r="H19" s="123"/>
     </row>
     <row r="20" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="96"/>
-      <c r="D20" s="80"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="80">
+        <v>10</v>
+      </c>
       <c r="E20" s="40">
         <f>D20*190*1.4</f>
-        <v>0</v>
+        <v>2660</v>
       </c>
       <c r="F20" s="17">
         <f>E8-E20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="105" t="e">
+        <v>2240</v>
+      </c>
+      <c r="G20" s="124">
         <f>1-(E20/E8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="106"/>
+        <v>0.45714285714285718</v>
+      </c>
+      <c r="H20" s="125"/>
       <c r="J20" s="3">
         <f>E20*E22</f>
-        <v>0</v>
+        <v>10479708.399999999</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="114" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="42" t="s">
@@ -6146,68 +6219,68 @@
       </c>
     </row>
     <row r="22" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="96"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="48">
         <v>0.12</v>
       </c>
       <c r="E22" s="44">
         <f>G8*D22</f>
-        <v>0</v>
+        <v>3939.74</v>
       </c>
       <c r="F22" s="21">
         <f>E22*E8</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="19" t="e">
+        <v>19304726</v>
+      </c>
+      <c r="G22" s="19">
         <f>E18/F22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="41" t="e">
+        <v>6.7792725988444491E-3</v>
+      </c>
+      <c r="H22" s="41" t="str">
         <f>IF(G22&lt;G20, "Y","N")</f>
-        <v>#DIV/0!</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="23" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="107">
+      <c r="E23" s="121"/>
+      <c r="F23" s="126">
         <f>+E20*E22</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
+        <v>10479708.399999999</v>
+      </c>
+      <c r="G23" s="127"/>
+      <c r="H23" s="128"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="111"/>
-      <c r="D24" s="101" t="s">
+      <c r="C24" s="92"/>
+      <c r="D24" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="98">
+      <c r="E24" s="121"/>
+      <c r="F24" s="117">
         <f>F23+E18</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
+        <v>10610580.399999999</v>
+      </c>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="32" t="s">
@@ -6231,15 +6304,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
@@ -6256,14 +6320,24 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D26" r:id="rId1" xr:uid="{26CB6683-7D43-44DF-99CA-6FC08609C420}"/>
+    <hyperlink ref="D10" r:id="rId2" display="https://smartstore.naver.com/goodsafe/products/4417926914?nl-au=582e6799559042e99f328aff303d22dd&amp;nl-query=%ED%8C%94%ED%86%A0%EC%8B%9C&amp;NaPm=ct%3Dm1ep6oi0%7Cci%3D4f1d24f57896f4f83d0cfdd7b46a8953c1535880%7Ctr%3Dslsl%7Csn%3D656934%7Chk%3D8481ff245797b92a590c94c5b98fc297fe7a6127" xr:uid="{96EC764A-F8A6-42B8-B049-64DB8DFB23FB}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -6300,24 +6374,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="3:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
@@ -6331,35 +6405,35 @@
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="90" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="128"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="95"/>
     </row>
     <row r="6" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="125"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="9"/>
       <c r="E6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -6377,7 +6451,7 @@
       <c r="AE6" s="3"/>
     </row>
     <row r="7" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="125"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="9"/>
       <c r="E7" s="13" t="s">
         <v>3</v>
@@ -6395,7 +6469,7 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="111"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="12"/>
       <c r="E8" s="79"/>
       <c r="F8" s="25"/>
@@ -6414,11 +6488,11 @@
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
       <c r="N9" s="3"/>
       <c r="U9" s="1"/>
     </row>
@@ -6427,19 +6501,19 @@
         <v>27</v>
       </c>
       <c r="D10" s="134"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="100"/>
     </row>
     <row r="11" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="13" t="s">
         <v>2</v>
       </c>
@@ -6454,7 +6528,7 @@
       </c>
     </row>
     <row r="12" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="117"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
@@ -6468,43 +6542,43 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="117"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
     </row>
     <row r="14" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="117"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
     </row>
     <row r="15" spans="3:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="118"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="118"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="103"/>
     </row>
     <row r="16" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="105"/>
       <c r="F16" s="38" t="s">
         <v>7</v>
       </c>
@@ -6516,7 +6590,7 @@
       </c>
     </row>
     <row r="17" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="87"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="14"/>
       <c r="E17" s="27"/>
       <c r="F17" s="45"/>
@@ -6527,20 +6601,20 @@
       </c>
     </row>
     <row r="18" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="88"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="91">
+      <c r="E18" s="110">
         <f>H17*3</f>
         <v>0</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="113"/>
     </row>
     <row r="19" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="114" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="22" t="s">
@@ -6552,13 +6626,13 @@
       <c r="F19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="104"/>
+      <c r="H19" s="123"/>
     </row>
     <row r="20" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="96"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="80"/>
       <c r="E20" s="40">
         <f>D20*190*1.4</f>
@@ -6568,18 +6642,18 @@
         <f>E8-E20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="105" t="e">
+      <c r="G20" s="124" t="e">
         <f>1-(E20/E8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="106"/>
+      <c r="H20" s="125"/>
       <c r="J20" s="3">
         <f>E20*E22</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="114" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="42" t="s">
@@ -6599,7 +6673,7 @@
       </c>
     </row>
     <row r="22" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="96"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="48">
         <v>0.12</v>
       </c>
@@ -6621,46 +6695,46 @@
       </c>
     </row>
     <row r="23" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="107">
+      <c r="E23" s="121"/>
+      <c r="F23" s="126">
         <f>+E20*E22</f>
         <v>0</v>
       </c>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="128"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="111"/>
-      <c r="D24" s="101" t="s">
+      <c r="C24" s="92"/>
+      <c r="D24" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="98">
+      <c r="E24" s="121"/>
+      <c r="F24" s="117">
         <f>F23+E18</f>
         <v>0</v>
       </c>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="32" t="s">
@@ -6684,15 +6758,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
@@ -6709,6 +6774,15 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -6753,24 +6827,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="3:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
@@ -6784,35 +6858,35 @@
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="90" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="128"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="95"/>
     </row>
     <row r="6" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="125"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="9"/>
       <c r="E6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -6830,7 +6904,7 @@
       <c r="AE6" s="3"/>
     </row>
     <row r="7" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="125"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="9"/>
       <c r="E7" s="13" t="s">
         <v>3</v>
@@ -6848,7 +6922,7 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="111"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="12"/>
       <c r="E8" s="79"/>
       <c r="F8" s="25"/>
@@ -6867,11 +6941,11 @@
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
       <c r="N9" s="3"/>
       <c r="U9" s="1"/>
     </row>
@@ -6880,19 +6954,19 @@
         <v>27</v>
       </c>
       <c r="D10" s="134"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="100"/>
     </row>
     <row r="11" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="13" t="s">
         <v>2</v>
       </c>
@@ -6907,7 +6981,7 @@
       </c>
     </row>
     <row r="12" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="117"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
@@ -6921,43 +6995,43 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="117"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
     </row>
     <row r="14" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="117"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
     </row>
     <row r="15" spans="3:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="118"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="118"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="103"/>
     </row>
     <row r="16" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="105"/>
       <c r="F16" s="38" t="s">
         <v>7</v>
       </c>
@@ -6969,7 +7043,7 @@
       </c>
     </row>
     <row r="17" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="87"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="14"/>
       <c r="E17" s="27"/>
       <c r="F17" s="45"/>
@@ -6980,20 +7054,20 @@
       </c>
     </row>
     <row r="18" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="88"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="91">
+      <c r="E18" s="110">
         <f>H17*3</f>
         <v>0</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="113"/>
     </row>
     <row r="19" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="114" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="22" t="s">
@@ -7005,13 +7079,13 @@
       <c r="F19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="104"/>
+      <c r="H19" s="123"/>
     </row>
     <row r="20" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="96"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="80"/>
       <c r="E20" s="40">
         <f>D20*190*1.4</f>
@@ -7021,18 +7095,18 @@
         <f>E8-E20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="105" t="e">
+      <c r="G20" s="124" t="e">
         <f>1-(E20/E8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="106"/>
+      <c r="H20" s="125"/>
       <c r="J20" s="3">
         <f>E20*E22</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="114" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="42" t="s">
@@ -7052,7 +7126,7 @@
       </c>
     </row>
     <row r="22" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="96"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="48">
         <v>0.12</v>
       </c>
@@ -7074,46 +7148,46 @@
       </c>
     </row>
     <row r="23" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="107">
+      <c r="E23" s="121"/>
+      <c r="F23" s="126">
         <f>+E20*E22</f>
         <v>0</v>
       </c>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="128"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="111"/>
-      <c r="D24" s="101" t="s">
+      <c r="C24" s="92"/>
+      <c r="D24" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="98">
+      <c r="E24" s="121"/>
+      <c r="F24" s="117">
         <f>F23+E18</f>
         <v>0</v>
       </c>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="32" t="s">
@@ -7137,18 +7211,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
     <mergeCell ref="D25:H25"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C16:C18"/>
@@ -7162,6 +7224,18 @@
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -7206,24 +7280,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="3:31" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
@@ -7237,35 +7311,35 @@
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="90" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="128"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="95"/>
     </row>
     <row r="6" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="125"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="9"/>
       <c r="E6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -7283,7 +7357,7 @@
       <c r="AE6" s="3"/>
     </row>
     <row r="7" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="125"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="9"/>
       <c r="E7" s="13" t="s">
         <v>3</v>
@@ -7301,7 +7375,7 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="111"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="12"/>
       <c r="E8" s="79"/>
       <c r="F8" s="25"/>
@@ -7320,11 +7394,11 @@
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
       <c r="N9" s="3"/>
       <c r="U9" s="1"/>
     </row>
@@ -7333,19 +7407,19 @@
         <v>27</v>
       </c>
       <c r="D10" s="134"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="100"/>
     </row>
     <row r="11" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="13" t="s">
         <v>2</v>
       </c>
@@ -7360,7 +7434,7 @@
       </c>
     </row>
     <row r="12" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="117"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
@@ -7374,43 +7448,43 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="117"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
     </row>
     <row r="14" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="117"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
     </row>
     <row r="15" spans="3:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="118"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="118"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="103"/>
     </row>
     <row r="16" spans="3:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="105"/>
       <c r="F16" s="38" t="s">
         <v>7</v>
       </c>
@@ -7422,7 +7496,7 @@
       </c>
     </row>
     <row r="17" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="87"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="14"/>
       <c r="E17" s="27"/>
       <c r="F17" s="45"/>
@@ -7433,20 +7507,20 @@
       </c>
     </row>
     <row r="18" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="88"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="91">
+      <c r="E18" s="110">
         <f>H17*3</f>
         <v>0</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="113"/>
     </row>
     <row r="19" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="114" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="22" t="s">
@@ -7458,13 +7532,13 @@
       <c r="F19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="104"/>
+      <c r="H19" s="123"/>
     </row>
     <row r="20" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="96"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="80"/>
       <c r="E20" s="40">
         <f>D20*190*1.4</f>
@@ -7474,18 +7548,18 @@
         <f>E8-E20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="105" t="e">
+      <c r="G20" s="124" t="e">
         <f>1-(E20/E8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="106"/>
+      <c r="H20" s="125"/>
       <c r="J20" s="3">
         <f>E20*E22</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="114" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="42" t="s">
@@ -7505,7 +7579,7 @@
       </c>
     </row>
     <row r="22" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="96"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="48">
         <v>0.12</v>
       </c>
@@ -7527,46 +7601,46 @@
       </c>
     </row>
     <row r="23" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="107">
+      <c r="E23" s="121"/>
+      <c r="F23" s="126">
         <f>+E20*E22</f>
         <v>0</v>
       </c>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="128"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="111"/>
-      <c r="D24" s="101" t="s">
+      <c r="C24" s="92"/>
+      <c r="D24" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="98">
+      <c r="E24" s="121"/>
+      <c r="F24" s="117">
         <f>F23+E18</f>
         <v>0</v>
       </c>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="32" t="s">
@@ -7590,15 +7664,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
@@ -7615,6 +7680,15 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
